--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,128 +344,172 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"s1"</v>
+        <v>"Optus"</v>
       </c>
       <c r="B2" t="str">
-        <v>"on"</v>
+        <v>false</v>
       </c>
       <c r="C2" t="str">
-        <v>"127.0.0.1:2000"</v>
+        <v>"198.142.236.195"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-10T09:51:31.931+07:00"</v>
+        <v>"2022-10-14T11:37:25.272+07:00"</v>
+      </c>
+      <c r="E2" t="str">
+        <v>"2022-10-14T11:37:25.272+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"s10"</v>
+        <v>"GComm Pty Ltd"</v>
       </c>
       <c r="B3" t="str">
-        <v>"off"</v>
+        <v>false</v>
       </c>
       <c r="C3" t="str">
-        <v>"127.0.0.1:1210"</v>
+        <v>"203.149.68.203"</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-10T13:58:48.925+07:00"</v>
+        <v>"2022-10-14T11:37:28.655+07:00"</v>
+      </c>
+      <c r="E3" t="str">
+        <v>"2022-10-14T11:37:28.655+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"s11"</v>
+        <v>"Valve Networks"</v>
       </c>
       <c r="B4" t="str">
-        <v>"off"</v>
+        <v>false</v>
       </c>
       <c r="C4" t="str">
-        <v>"127.0.0.1:3100"</v>
+        <v>"144.130.167.198"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-10T13:58:48.993+07:00"</v>
+        <v>"2022-10-14T11:37:31.954+07:00"</v>
+      </c>
+      <c r="E4" t="str">
+        <v>"2022-10-14T11:37:31.954+07:00"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>"s12"</v>
+        <v>"APNIC Pty Ltd"</v>
       </c>
       <c r="B5" t="str">
-        <v>""</v>
+        <v>false</v>
       </c>
       <c r="C5" t="str">
-        <v>"127.0.0.1:5600"</v>
+        <v>"203.119.111.143"</v>
       </c>
       <c r="D5" t="str">
-        <v>"2022-10-10T14:13:26.285+07:00"</v>
+        <v>"2022-10-14T11:37:35.33+07:00"</v>
+      </c>
+      <c r="E5" t="str">
+        <v>"2022-10-14T11:37:35.33+07:00"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>"s13"</v>
+        <v>"Frontier Networks"</v>
       </c>
       <c r="B6" t="str">
-        <v>"on"</v>
+        <v>false</v>
       </c>
       <c r="C6" t="str">
-        <v>"127.0.0.1:1212"</v>
+        <v>"103.27.31.2"</v>
       </c>
       <c r="D6" t="str">
-        <v>"2022-10-10T14:22:02.592+07:00"</v>
+        <v>"2022-10-14T11:37:45.431+07:00"</v>
+      </c>
+      <c r="E6" t="str">
+        <v>"2022-10-14T11:37:45.431+07:00"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>"s14"</v>
+        <v>"Over the Wire"</v>
       </c>
       <c r="B7" t="str">
-        <v>"off"</v>
+        <v>false</v>
       </c>
       <c r="C7" t="str">
-        <v>"127.0.0.1:1210"</v>
+        <v>"119.17.170.220"</v>
       </c>
       <c r="D7" t="str">
-        <v>"2022-10-10T14:22:02.66+07:00"</v>
+        <v>"2022-10-14T11:37:48.725+07:00"</v>
+      </c>
+      <c r="E7" t="str">
+        <v>"2022-10-14T11:37:48.725+07:00"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>"s15"</v>
+        <v>"Elypsys"</v>
       </c>
       <c r="B8" t="str">
-        <v>"off"</v>
+        <v>false</v>
       </c>
       <c r="C8" t="str">
-        <v>"127.0.0.1:3100"</v>
+        <v>"144.130.165.118"</v>
       </c>
       <c r="D8" t="str">
-        <v>"2022-10-10T14:22:02.734+07:00"</v>
+        <v>"2022-10-14T11:37:52.026+07:00"</v>
+      </c>
+      <c r="E8" t="str">
+        <v>"2022-10-14T11:37:52.026+07:00"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>"s16"</v>
+        <v>"PHREEK Solutions"</v>
       </c>
       <c r="B9" t="str">
-        <v>"off"</v>
+        <v>false</v>
       </c>
       <c r="C9" t="str">
-        <v>"127.0.0.1:5600"</v>
+        <v>"203.54.161.146"</v>
       </c>
       <c r="D9" t="str">
-        <v>"2022-10-10T14:22:03.009+07:00"</v>
+        <v>"2022-10-14T11:37:55.372+07:00"</v>
+      </c>
+      <c r="E9" t="str">
+        <v>"2022-10-14T11:37:55.372+07:00"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>"s17"</v>
+        <v>"Christie CoWork Pty Ltd"</v>
       </c>
       <c r="B10" t="str">
-        <v>"on"</v>
+        <v>false</v>
       </c>
       <c r="C10" t="str">
-        <v>"127.0.0.1:1210"</v>
+        <v>"150.101.64.65"</v>
       </c>
       <c r="D10" t="str">
-        <v>"2022-10-10T14:22:03.262+07:00"</v>
+        <v>"2022-10-14T11:37:58.794+07:00"</v>
+      </c>
+      <c r="E10" t="str">
+        <v>"2022-10-14T11:37:58.794+07:00"</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>"TasmaNet Pty Ltd"</v>
+      </c>
+      <c r="B11" t="str">
+        <v>false</v>
+      </c>
+      <c r="C11" t="str">
+        <v>"202.80.66.3"</v>
+      </c>
+      <c r="D11" t="str">
+        <v>"2022-10-14T11:41:33.748+07:00"</v>
+      </c>
+      <c r="E11" t="str">
+        <v>"2022-10-14T11:41:33.748+07:00"</v>
       </c>
     </row>
   </sheetData>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,172 +344,53 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"Optus"</v>
+        <v>"Andreotti Consulting"</v>
       </c>
       <c r="B2" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="C2" t="str">
-        <v>"198.142.236.195"</v>
+        <v>"103.224.162.22"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-14T11:37:25.272+07:00"</v>
+        <v>"2022-10-15T17:30:08.692+07:00"</v>
       </c>
       <c r="E2" t="str">
-        <v>"2022-10-14T11:37:25.272+07:00"</v>
+        <v>"1970-01-20T13:45:11.881+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"GComm Pty Ltd"</v>
+        <v>"Australian Private Networks"</v>
       </c>
       <c r="B3" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="C3" t="str">
-        <v>"203.149.68.203"</v>
+        <v>"185.131.187.252 "</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-14T11:37:28.655+07:00"</v>
+        <v>"2022-10-15T17:30:56.991+07:00"</v>
       </c>
       <c r="E3" t="str">
-        <v>"2022-10-14T11:37:28.655+07:00"</v>
+        <v>"1970-01-20T13:45:11.887+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"Valve Networks"</v>
+        <v>"server local 11"</v>
       </c>
       <c r="B4" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="C4" t="str">
-        <v>"144.130.167.198"</v>
+        <v>"135.8.9.1"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-14T11:37:31.954+07:00"</v>
+        <v>"2022-10-16T01:32:35.615+07:00"</v>
       </c>
       <c r="E4" t="str">
-        <v>"2022-10-14T11:37:31.954+07:00"</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>"APNIC Pty Ltd"</v>
-      </c>
-      <c r="B5" t="str">
-        <v>false</v>
-      </c>
-      <c r="C5" t="str">
-        <v>"203.119.111.143"</v>
-      </c>
-      <c r="D5" t="str">
-        <v>"2022-10-14T11:37:35.33+07:00"</v>
-      </c>
-      <c r="E5" t="str">
-        <v>"2022-10-14T11:37:35.33+07:00"</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>"Frontier Networks"</v>
-      </c>
-      <c r="B6" t="str">
-        <v>false</v>
-      </c>
-      <c r="C6" t="str">
-        <v>"103.27.31.2"</v>
-      </c>
-      <c r="D6" t="str">
-        <v>"2022-10-14T11:37:45.431+07:00"</v>
-      </c>
-      <c r="E6" t="str">
-        <v>"2022-10-14T11:37:45.431+07:00"</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>"Over the Wire"</v>
-      </c>
-      <c r="B7" t="str">
-        <v>false</v>
-      </c>
-      <c r="C7" t="str">
-        <v>"119.17.170.220"</v>
-      </c>
-      <c r="D7" t="str">
-        <v>"2022-10-14T11:37:48.725+07:00"</v>
-      </c>
-      <c r="E7" t="str">
-        <v>"2022-10-14T11:37:48.725+07:00"</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>"Elypsys"</v>
-      </c>
-      <c r="B8" t="str">
-        <v>false</v>
-      </c>
-      <c r="C8" t="str">
-        <v>"144.130.165.118"</v>
-      </c>
-      <c r="D8" t="str">
-        <v>"2022-10-14T11:37:52.026+07:00"</v>
-      </c>
-      <c r="E8" t="str">
-        <v>"2022-10-14T11:37:52.026+07:00"</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>"PHREEK Solutions"</v>
-      </c>
-      <c r="B9" t="str">
-        <v>false</v>
-      </c>
-      <c r="C9" t="str">
-        <v>"203.54.161.146"</v>
-      </c>
-      <c r="D9" t="str">
-        <v>"2022-10-14T11:37:55.372+07:00"</v>
-      </c>
-      <c r="E9" t="str">
-        <v>"2022-10-14T11:37:55.372+07:00"</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>"Christie CoWork Pty Ltd"</v>
-      </c>
-      <c r="B10" t="str">
-        <v>false</v>
-      </c>
-      <c r="C10" t="str">
-        <v>"150.101.64.65"</v>
-      </c>
-      <c r="D10" t="str">
-        <v>"2022-10-14T11:37:58.794+07:00"</v>
-      </c>
-      <c r="E10" t="str">
-        <v>"2022-10-14T11:37:58.794+07:00"</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>"TasmaNet Pty Ltd"</v>
-      </c>
-      <c r="B11" t="str">
-        <v>false</v>
-      </c>
-      <c r="C11" t="str">
-        <v>"202.80.66.3"</v>
-      </c>
-      <c r="D11" t="str">
-        <v>"2022-10-14T11:41:33.748+07:00"</v>
-      </c>
-      <c r="E11" t="str">
-        <v>"2022-10-14T11:41:33.748+07:00"</v>
+        <v>"1970-01-20T13:45:11.909+07:00"</v>
       </c>
     </row>
   </sheetData>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,53 +344,155 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"Andreotti Consulting"</v>
+        <v>"Aus Net Servers Australia Pty Ltd"</v>
       </c>
       <c r="B2" t="str">
         <v>true</v>
       </c>
       <c r="C2" t="str">
-        <v>"103.224.162.22"</v>
+        <v>"98.142.236.193"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-15T17:30:08.692+07:00"</v>
+        <v>"2022-10-14T11:37:18.732+07:00"</v>
       </c>
       <c r="E2" t="str">
-        <v>"1970-01-20T13:45:11.881+07:00"</v>
+        <v>"2022-10-14T11:37:18.732+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"Australian Private Networks"</v>
+        <v>"Launtel"</v>
       </c>
       <c r="B3" t="str">
         <v>true</v>
       </c>
       <c r="C3" t="str">
-        <v>"185.131.187.252 "</v>
+        <v>"150.101.208.148"</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-15T17:30:56.991+07:00"</v>
+        <v>"2022-10-14T11:41:23.731+07:00"</v>
       </c>
       <c r="E3" t="str">
-        <v>"1970-01-20T13:45:11.887+07:00"</v>
+        <v>"2022-10-14T11:41:23.731+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"server local 11"</v>
+        <v>"Pivit"</v>
       </c>
       <c r="B4" t="str">
         <v>true</v>
       </c>
       <c r="C4" t="str">
-        <v>"135.8.9.1"</v>
+        <v>"103.7.91.187"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-16T01:32:35.615+07:00"</v>
+        <v>"2022-10-14T11:38:43.23+07:00"</v>
       </c>
       <c r="E4" t="str">
-        <v>"1970-01-20T13:45:11.909+07:00"</v>
+        <v>"2022-10-14T11:38:43.23+07:00"</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>"Andreotti Consulting"</v>
+      </c>
+      <c r="B5" t="str">
+        <v>true</v>
+      </c>
+      <c r="C5" t="str">
+        <v>"103.224.162.22"</v>
+      </c>
+      <c r="D5" t="str">
+        <v>"2022-10-14T11:45:43.738+07:00"</v>
+      </c>
+      <c r="E5" t="str">
+        <v>"2022-10-14T11:45:43.738+07:00"</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>"IX Australia"</v>
+      </c>
+      <c r="B6" t="str">
+        <v>true</v>
+      </c>
+      <c r="C6" t="str">
+        <v>"59.153.11.171"</v>
+      </c>
+      <c r="D6" t="str">
+        <v>"2022-10-14T11:44:43.726+07:00"</v>
+      </c>
+      <c r="E6" t="str">
+        <v>"2022-10-14T11:44:43.726+07:00"</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>"Digital Sense Cloud Services"</v>
+      </c>
+      <c r="B7" t="str">
+        <v>true</v>
+      </c>
+      <c r="C7" t="str">
+        <v>" 198.142.236.72"</v>
+      </c>
+      <c r="D7" t="str">
+        <v>"2022-10-14T11:39:09.319+07:00"</v>
+      </c>
+      <c r="E7" t="str">
+        <v>"2022-10-14T11:39:09.319+07:00"</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>"CloudCentral"</v>
+      </c>
+      <c r="B8" t="str">
+        <v>true</v>
+      </c>
+      <c r="C8" t="str">
+        <v>"103.48.89.31"</v>
+      </c>
+      <c r="D8" t="str">
+        <v>"2022-10-14T11:39:53.731+07:00"</v>
+      </c>
+      <c r="E8" t="str">
+        <v>"2022-10-14T11:39:53.731+07:00"</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>"SoftLayer Technologies, Inc."</v>
+      </c>
+      <c r="B9" t="str">
+        <v>true</v>
+      </c>
+      <c r="C9" t="str">
+        <v>"203.21.118.9"</v>
+      </c>
+      <c r="D9" t="str">
+        <v>"2022-10-14T11:42:48.231+07:00"</v>
+      </c>
+      <c r="E9" t="str">
+        <v>"2022-10-14T11:42:48.231+07:00"</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>"NODE1 Internet"</v>
+      </c>
+      <c r="B10" t="str">
+        <v>true</v>
+      </c>
+      <c r="C10" t="str">
+        <v>"202.40.3.147"</v>
+      </c>
+      <c r="D10" t="str">
+        <v>"2022-10-14T11:40:29.23+07:00"</v>
+      </c>
+      <c r="E10" t="str">
+        <v>"2022-10-14T11:40:29.23+07:00"</v>
       </c>
     </row>
   </sheetData>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,155 +344,155 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"Aus Net Servers Australia Pty Ltd"</v>
+        <v>"Internode"</v>
       </c>
       <c r="B2" t="str">
         <v>true</v>
       </c>
       <c r="C2" t="str">
-        <v>"98.142.236.193"</v>
+        <v>"150.101.135.90"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-14T11:37:18.732+07:00"</v>
+        <v>"2022-10-14T11:36:52.733+07:00"</v>
       </c>
       <c r="E2" t="str">
-        <v>"2022-10-14T11:37:18.732+07:00"</v>
+        <v>"1970-01-20T13:46:45.525+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"Launtel"</v>
+        <v>"UBC Web Design"</v>
       </c>
       <c r="B3" t="str">
         <v>true</v>
       </c>
       <c r="C3" t="str">
-        <v>"150.101.208.148"</v>
+        <v>"149.28.175.196"</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-14T11:41:23.731+07:00"</v>
+        <v>"2022-10-14T11:36:59.888+07:00"</v>
       </c>
       <c r="E3" t="str">
-        <v>"2022-10-14T11:41:23.731+07:00"</v>
+        <v>"1970-01-20T13:46:45.528+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"Pivit"</v>
+        <v>"Vodafone Hutchison Australia (GT)"</v>
       </c>
       <c r="B4" t="str">
         <v>true</v>
       </c>
       <c r="C4" t="str">
-        <v>"103.7.91.187"</v>
+        <v>" 203.30.68.6"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-14T11:38:43.23+07:00"</v>
+        <v>"2022-10-14T11:40:36.059+07:00"</v>
       </c>
       <c r="E4" t="str">
-        <v>"2022-10-14T11:38:43.23+07:00"</v>
+        <v>"2022-10-14T11:40:36.059+07:00"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>"Andreotti Consulting"</v>
+        <v>"Fibervision Networks"</v>
       </c>
       <c r="B5" t="str">
         <v>true</v>
       </c>
       <c r="C5" t="str">
-        <v>"103.224.162.22"</v>
+        <v>"168.1.124.141"</v>
       </c>
       <c r="D5" t="str">
-        <v>"2022-10-14T11:45:43.738+07:00"</v>
+        <v>"2022-10-14T11:40:54.733+07:00"</v>
       </c>
       <c r="E5" t="str">
-        <v>"2022-10-14T11:45:43.738+07:00"</v>
+        <v>"2022-10-14T11:40:54.733+07:00"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>"IX Australia"</v>
+        <v>"GComm Pty Ltd"</v>
       </c>
       <c r="B6" t="str">
         <v>true</v>
       </c>
       <c r="C6" t="str">
-        <v>"59.153.11.171"</v>
+        <v>"203.149.68.203"</v>
       </c>
       <c r="D6" t="str">
-        <v>"2022-10-14T11:44:43.726+07:00"</v>
+        <v>"2022-10-14T11:37:28.655+07:00"</v>
       </c>
       <c r="E6" t="str">
-        <v>"2022-10-14T11:44:43.726+07:00"</v>
+        <v>"1970-01-20T13:46:46.145+07:00"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>"Digital Sense Cloud Services"</v>
+        <v>"Over the Wire"</v>
       </c>
       <c r="B7" t="str">
         <v>true</v>
       </c>
       <c r="C7" t="str">
-        <v>" 198.142.236.72"</v>
+        <v>"119.17.170.220"</v>
       </c>
       <c r="D7" t="str">
-        <v>"2022-10-14T11:39:09.319+07:00"</v>
+        <v>"2022-10-14T11:37:48.725+07:00"</v>
       </c>
       <c r="E7" t="str">
-        <v>"2022-10-14T11:39:09.319+07:00"</v>
+        <v>"1970-01-20T13:52:30.198+07:00"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>"CloudCentral"</v>
+        <v>"Launtel"</v>
       </c>
       <c r="B8" t="str">
         <v>true</v>
       </c>
       <c r="C8" t="str">
-        <v>"103.48.89.31"</v>
+        <v>"150.101.208.148"</v>
       </c>
       <c r="D8" t="str">
-        <v>"2022-10-14T11:39:53.731+07:00"</v>
+        <v>"2022-10-14T11:41:23.731+07:00"</v>
       </c>
       <c r="E8" t="str">
-        <v>"2022-10-14T11:39:53.731+07:00"</v>
+        <v>"2022-10-14T11:41:23.731+07:00"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>"SoftLayer Technologies, Inc."</v>
+        <v>"PHREEK Solutions"</v>
       </c>
       <c r="B9" t="str">
         <v>true</v>
       </c>
       <c r="C9" t="str">
-        <v>"203.21.118.9"</v>
+        <v>"203.54.161.146"</v>
       </c>
       <c r="D9" t="str">
-        <v>"2022-10-14T11:42:48.231+07:00"</v>
+        <v>"2022-10-14T11:37:55.372+07:00"</v>
       </c>
       <c r="E9" t="str">
-        <v>"2022-10-14T11:42:48.231+07:00"</v>
+        <v>"1970-01-20T13:52:30.204+07:00"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>"NODE1 Internet"</v>
+        <v>"VMvault"</v>
       </c>
       <c r="B10" t="str">
         <v>true</v>
       </c>
       <c r="C10" t="str">
-        <v>"202.40.3.147"</v>
+        <v>"103.4.63.62"</v>
       </c>
       <c r="D10" t="str">
-        <v>"2022-10-14T11:40:29.23+07:00"</v>
+        <v>"2022-10-14T11:38:02.168+07:00"</v>
       </c>
       <c r="E10" t="str">
-        <v>"2022-10-14T11:40:29.23+07:00"</v>
+        <v>"1970-01-20T13:52:30.383+07:00"</v>
       </c>
     </row>
   </sheetData>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,155 +344,172 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"Internode"</v>
+        <v>"Walrus Design"</v>
       </c>
       <c r="B2" t="str">
         <v>true</v>
       </c>
       <c r="C2" t="str">
-        <v>"150.101.135.90"</v>
+        <v>"37.130.151.30"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-14T11:36:52.733+07:00"</v>
+        <v>"2022-10-22T02:14:18.6+07:00"</v>
       </c>
       <c r="E2" t="str">
-        <v>"1970-01-20T13:46:45.525+07:00"</v>
+        <v>"1970-01-20T13:53:00.762+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"UBC Web Design"</v>
+        <v>"Vodafone Hutchison Australia (PH)"</v>
       </c>
       <c r="B3" t="str">
         <v>true</v>
       </c>
       <c r="C3" t="str">
-        <v>"149.28.175.196"</v>
+        <v>"150.101.120.154"</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-14T11:36:59.888+07:00"</v>
+        <v>"2022-10-22T02:13:56.529+07:00"</v>
       </c>
       <c r="E3" t="str">
-        <v>"1970-01-20T13:46:45.528+07:00"</v>
+        <v>"1970-01-20T13:53:00.739+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"Vodafone Hutchison Australia (GT)"</v>
+        <v>"Vodafone Hutchison Australia (MY)"</v>
       </c>
       <c r="B4" t="str">
         <v>true</v>
       </c>
       <c r="C4" t="str">
-        <v>" 203.30.68.6"</v>
+        <v>"198.142.236.68"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-14T11:40:36.059+07:00"</v>
+        <v>"2022-10-22T02:13:27.944+07:00"</v>
       </c>
       <c r="E4" t="str">
-        <v>"2022-10-14T11:40:36.059+07:00"</v>
+        <v>"1970-01-20T13:53:00.723+07:00"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>"Fibervision Networks"</v>
+        <v>"Vodafone Hutchison Australia (GT)"</v>
       </c>
       <c r="B5" t="str">
         <v>true</v>
       </c>
       <c r="C5" t="str">
-        <v>"168.1.124.141"</v>
+        <v>" 203.30.68.6"</v>
       </c>
       <c r="D5" t="str">
-        <v>"2022-10-14T11:40:54.733+07:00"</v>
+        <v>"2022-10-22T02:03:31.587+07:00"</v>
       </c>
       <c r="E5" t="str">
-        <v>"2022-10-14T11:40:54.733+07:00"</v>
+        <v>"1970-01-20T13:53:00.651+07:00"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>"GComm Pty Ltd"</v>
+        <v>"Vodafone Hutchison Australia (AE)"</v>
       </c>
       <c r="B6" t="str">
         <v>true</v>
       </c>
       <c r="C6" t="str">
-        <v>"203.149.68.203"</v>
+        <v>"203.21.117.9"</v>
       </c>
       <c r="D6" t="str">
-        <v>"2022-10-14T11:37:28.655+07:00"</v>
+        <v>"2022-10-22T01:59:25.829+07:00"</v>
       </c>
       <c r="E6" t="str">
-        <v>"1970-01-20T13:46:46.145+07:00"</v>
+        <v>"1970-01-20T13:53:00.454+07:00"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>"Over the Wire"</v>
+        <v>"Vocus Telecommunications"</v>
       </c>
       <c r="B7" t="str">
         <v>true</v>
       </c>
       <c r="C7" t="str">
-        <v>"119.17.170.220"</v>
+        <v>"150.101.172.82"</v>
       </c>
       <c r="D7" t="str">
-        <v>"2022-10-14T11:37:48.725+07:00"</v>
+        <v>"2022-10-22T02:12:56.51+07:00"</v>
       </c>
       <c r="E7" t="str">
-        <v>"1970-01-20T13:52:30.198+07:00"</v>
+        <v>"1970-01-20T13:53:00.65+07:00"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>"Launtel"</v>
+        <v>"Vocus Communications"</v>
       </c>
       <c r="B8" t="str">
         <v>true</v>
       </c>
       <c r="C8" t="str">
-        <v>"150.101.208.148"</v>
+        <v>"125.235.4.59"</v>
       </c>
       <c r="D8" t="str">
-        <v>"2022-10-14T11:41:23.731+07:00"</v>
+        <v>"2022-10-22T01:58:28.823+07:00"</v>
       </c>
       <c r="E8" t="str">
-        <v>"2022-10-14T11:41:23.731+07:00"</v>
+        <v>"1970-01-20T13:53:00.397+07:00"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>"PHREEK Solutions"</v>
+        <v>"VMvault"</v>
       </c>
       <c r="B9" t="str">
         <v>true</v>
       </c>
       <c r="C9" t="str">
-        <v>"203.54.161.146"</v>
+        <v>"103.4.63.62"</v>
       </c>
       <c r="D9" t="str">
-        <v>"2022-10-14T11:37:55.372+07:00"</v>
+        <v>"2022-10-22T02:01:22.6+07:00"</v>
       </c>
       <c r="E9" t="str">
-        <v>"1970-01-20T13:52:30.204+07:00"</v>
+        <v>"1970-01-20T13:53:00.569+07:00"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>"VMvault"</v>
+        <v>"Valve Networks"</v>
       </c>
       <c r="B10" t="str">
         <v>true</v>
       </c>
       <c r="C10" t="str">
-        <v>"103.4.63.62"</v>
+        <v>"144.130.167.198"</v>
       </c>
       <c r="D10" t="str">
-        <v>"2022-10-14T11:38:02.168+07:00"</v>
+        <v>"2022-10-22T02:00:37.672+07:00"</v>
       </c>
       <c r="E10" t="str">
-        <v>"1970-01-20T13:52:30.383+07:00"</v>
+        <v>"1970-01-20T13:53:00.53+07:00"</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>"UberGlobal"</v>
+      </c>
+      <c r="B11" t="str">
+        <v>true</v>
+      </c>
+      <c r="C11" t="str">
+        <v>"144.130.167.86"</v>
+      </c>
+      <c r="D11" t="str">
+        <v>"2022-10-22T02:03:06.263+07:00"</v>
+      </c>
+      <c r="E11" t="str">
+        <v>"1970-01-20T13:53:00.616+07:00"</v>
       </c>
     </row>
   </sheetData>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,172 +344,172 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"Walrus Design"</v>
+        <v>"demo s3"</v>
       </c>
       <c r="B2" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="C2" t="str">
-        <v>"37.130.151.30"</v>
+        <v>"168.191.0aSDSDA"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-22T02:14:18.6+07:00"</v>
+        <v>"2022-10-24T03:53:34.495+07:00"</v>
       </c>
       <c r="E2" t="str">
-        <v>"1970-01-20T13:53:00.762+07:00"</v>
+        <v>"2022-10-24T03:53:34.495+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"Vodafone Hutchison Australia (PH)"</v>
+        <v>"demo s5"</v>
       </c>
       <c r="B3" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="C3" t="str">
-        <v>"150.101.120.154"</v>
+        <v>"168.191.0aSDSDA"</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-22T02:13:56.529+07:00"</v>
+        <v>"2022-10-24T03:54:30.489+07:00"</v>
       </c>
       <c r="E3" t="str">
-        <v>"1970-01-20T13:53:00.739+07:00"</v>
+        <v>"2022-10-24T03:54:30.489+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"Vodafone Hutchison Australia (MY)"</v>
+        <v>"demo s3'"</v>
       </c>
       <c r="B4" t="str">
         <v>true</v>
       </c>
       <c r="C4" t="str">
-        <v>"198.142.236.68"</v>
+        <v>"168.191.0.1"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-22T02:13:27.944+07:00"</v>
+        <v>"2022-10-24T03:41:17.32+07:00"</v>
       </c>
       <c r="E4" t="str">
-        <v>"1970-01-20T13:53:00.723+07:00"</v>
+        <v>"1970-01-20T13:55:57.99+07:00"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>"Vodafone Hutchison Australia (GT)"</v>
+        <v>"Exetel"</v>
       </c>
       <c r="B5" t="str">
         <v>true</v>
       </c>
       <c r="C5" t="str">
-        <v>" 203.30.68.6"</v>
+        <v>"58.96.4.240"</v>
       </c>
       <c r="D5" t="str">
-        <v>"2022-10-22T02:03:31.587+07:00"</v>
+        <v>"2022-10-22T01:59:32.194+07:00"</v>
       </c>
       <c r="E5" t="str">
-        <v>"1970-01-20T13:53:00.651+07:00"</v>
+        <v>"1970-01-20T13:53:00.461+07:00"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>"Vodafone Hutchison Australia (AE)"</v>
+        <v>"Beam Barossa"</v>
       </c>
       <c r="B6" t="str">
         <v>true</v>
       </c>
       <c r="C6" t="str">
-        <v>"203.21.117.9"</v>
+        <v>"103.197.213.29"</v>
       </c>
       <c r="D6" t="str">
-        <v>"2022-10-22T01:59:25.829+07:00"</v>
+        <v>"2022-10-22T02:00:28.038+07:00"</v>
       </c>
       <c r="E6" t="str">
-        <v>"1970-01-20T13:53:00.454+07:00"</v>
+        <v>"1970-01-20T13:53:00.521+07:00"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>"Vocus Telecommunications"</v>
+        <v>"Optus"</v>
       </c>
       <c r="B7" t="str">
         <v>true</v>
       </c>
       <c r="C7" t="str">
-        <v>"150.101.172.82"</v>
+        <v>"198.142.236.195"</v>
       </c>
       <c r="D7" t="str">
-        <v>"2022-10-22T02:12:56.51+07:00"</v>
+        <v>"2022-10-22T02:00:31.243+07:00"</v>
       </c>
       <c r="E7" t="str">
-        <v>"1970-01-20T13:53:00.65+07:00"</v>
+        <v>"1970-01-20T13:53:00.524+07:00"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>"Vocus Communications"</v>
+        <v>"Valve Networks"</v>
       </c>
       <c r="B8" t="str">
         <v>true</v>
       </c>
       <c r="C8" t="str">
-        <v>"125.235.4.59"</v>
+        <v>"144.130.167.198"</v>
       </c>
       <c r="D8" t="str">
-        <v>"2022-10-22T01:58:28.823+07:00"</v>
+        <v>"2022-10-22T02:00:37.672+07:00"</v>
       </c>
       <c r="E8" t="str">
-        <v>"1970-01-20T13:53:00.397+07:00"</v>
+        <v>"1970-01-20T13:53:00.53+07:00"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>"VMvault"</v>
+        <v>"GComm Pty Ltd"</v>
       </c>
       <c r="B9" t="str">
         <v>true</v>
       </c>
       <c r="C9" t="str">
-        <v>"103.4.63.62"</v>
+        <v>"203.149.68.203"</v>
       </c>
       <c r="D9" t="str">
-        <v>"2022-10-22T02:01:22.6+07:00"</v>
+        <v>"2022-10-22T02:00:34.46+07:00"</v>
       </c>
       <c r="E9" t="str">
-        <v>"1970-01-20T13:53:00.569+07:00"</v>
+        <v>"1970-01-20T13:53:00.527+07:00"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>"Valve Networks"</v>
+        <v>"APNIC Pty Ltd"</v>
       </c>
       <c r="B10" t="str">
         <v>true</v>
       </c>
       <c r="C10" t="str">
-        <v>"144.130.167.198"</v>
+        <v>"203.119.111.143"</v>
       </c>
       <c r="D10" t="str">
-        <v>"2022-10-22T02:00:37.672+07:00"</v>
+        <v>"2022-10-22T02:00:40.908+07:00"</v>
       </c>
       <c r="E10" t="str">
-        <v>"1970-01-20T13:53:00.53+07:00"</v>
+        <v>"1970-01-20T13:53:00.534+07:00"</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>"UberGlobal"</v>
+        <v>"AARNet"</v>
       </c>
       <c r="B11" t="str">
         <v>true</v>
       </c>
       <c r="C11" t="str">
-        <v>"144.130.167.86"</v>
+        <v>"182.255.120.246"</v>
       </c>
       <c r="D11" t="str">
-        <v>"2022-10-22T02:03:06.263+07:00"</v>
+        <v>"2022-10-22T01:59:29.006+07:00"</v>
       </c>
       <c r="E11" t="str">
-        <v>"1970-01-20T13:53:00.616+07:00"</v>
+        <v>"1970-01-20T13:53:00.457+07:00"</v>
       </c>
     </row>
   </sheetData>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -344,172 +344,342 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>"demo s3"</v>
+        <v>"UBC Web Design"</v>
       </c>
       <c r="B2" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="C2" t="str">
-        <v>"168.191.0aSDSDA"</v>
+        <v>"149.28.175.196"</v>
       </c>
       <c r="D2" t="str">
-        <v>"2022-10-24T03:53:34.495+07:00"</v>
+        <v>"2022-10-22T02:00:05.835+07:00"</v>
       </c>
       <c r="E2" t="str">
-        <v>"2022-10-24T03:53:34.495+07:00"</v>
+        <v>"1970-01-20T13:59:39.621+07:00"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>"demo s5"</v>
+        <v>"Telstra"</v>
       </c>
       <c r="B3" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="C3" t="str">
-        <v>"168.191.0aSDSDA"</v>
+        <v>"125.235.4.59"</v>
       </c>
       <c r="D3" t="str">
-        <v>"2022-10-24T03:54:30.489+07:00"</v>
+        <v>"2022-10-22T01:58:09.835+07:00"</v>
       </c>
       <c r="E3" t="str">
-        <v>"2022-10-24T03:54:30.489+07:00"</v>
+        <v>"1970-01-20T13:59:39.805+07:00"</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>"demo s3'"</v>
+        <v>"TasmaNet Pty Ltd"</v>
       </c>
       <c r="B4" t="str">
         <v>true</v>
       </c>
       <c r="C4" t="str">
-        <v>"168.191.0.1"</v>
+        <v>"202.80.66.3"</v>
       </c>
       <c r="D4" t="str">
-        <v>"2022-10-24T03:41:17.32+07:00"</v>
+        <v>"2022-10-22T02:04:24.962+07:00"</v>
       </c>
       <c r="E4" t="str">
-        <v>"1970-01-20T13:55:57.99+07:00"</v>
+        <v>"1970-01-20T13:53:00.619+07:00"</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>"Exetel"</v>
+        <v>"Spirit Telecom"</v>
       </c>
       <c r="B5" t="str">
         <v>true</v>
       </c>
       <c r="C5" t="str">
-        <v>"58.96.4.240"</v>
+        <v>"218.100.43.26"</v>
       </c>
       <c r="D5" t="str">
-        <v>"2022-10-22T01:59:32.194+07:00"</v>
+        <v>"2022-10-25T01:46:43.08+07:00"</v>
       </c>
       <c r="E5" t="str">
-        <v>"1970-01-20T13:53:00.461+07:00"</v>
+        <v>"2022-10-25T01:46:43.08+07:00"</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>"Beam Barossa"</v>
+        <v>"SoftLayer Technologies, Inc."</v>
       </c>
       <c r="B6" t="str">
         <v>true</v>
       </c>
       <c r="C6" t="str">
-        <v>"103.197.213.29"</v>
+        <v>"203.21.118.9"</v>
       </c>
       <c r="D6" t="str">
-        <v>"2022-10-22T02:00:28.038+07:00"</v>
+        <v>"2022-10-22T02:13:18.327+07:00"</v>
       </c>
       <c r="E6" t="str">
-        <v>"1970-01-20T13:53:00.521+07:00"</v>
+        <v>"1970-01-20T13:59:40.019+07:00"</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>"Optus"</v>
+        <v>"Redfox Corporation Pty Ltd"</v>
       </c>
       <c r="B7" t="str">
         <v>true</v>
       </c>
       <c r="C7" t="str">
-        <v>"198.142.236.195"</v>
+        <v>"182.255.120.186"</v>
       </c>
       <c r="D7" t="str">
-        <v>"2022-10-22T02:00:31.243+07:00"</v>
+        <v>"2022-10-22T02:04:50.166+07:00"</v>
       </c>
       <c r="E7" t="str">
-        <v>"1970-01-20T13:53:00.524+07:00"</v>
+        <v>"1970-01-20T13:53:00.622+07:00"</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>"Valve Networks"</v>
+        <v>"Pivit"</v>
       </c>
       <c r="B8" t="str">
         <v>true</v>
       </c>
       <c r="C8" t="str">
-        <v>"144.130.167.198"</v>
+        <v>"103.7.91.187"</v>
       </c>
       <c r="D8" t="str">
-        <v>"2022-10-22T02:00:37.672+07:00"</v>
+        <v>"2022-10-22T02:02:03.332+07:00"</v>
       </c>
       <c r="E8" t="str">
-        <v>"1970-01-20T13:53:00.53+07:00"</v>
+        <v>"1970-01-20T13:59:39.729+07:00"</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>"GComm Pty Ltd"</v>
+        <v>"PHREEK Solutions"</v>
       </c>
       <c r="B9" t="str">
         <v>true</v>
       </c>
       <c r="C9" t="str">
-        <v>"203.149.68.203"</v>
+        <v>"203.54.161.146"</v>
       </c>
       <c r="D9" t="str">
-        <v>"2022-10-22T02:00:34.46+07:00"</v>
+        <v>"2022-10-22T02:01:00.348+07:00"</v>
       </c>
       <c r="E9" t="str">
-        <v>"1970-01-20T13:53:00.527+07:00"</v>
+        <v>"1970-01-20T13:53:00.546+07:00"</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>"APNIC Pty Ltd"</v>
+        <v>"Over the Wire"</v>
       </c>
       <c r="B10" t="str">
         <v>true</v>
       </c>
       <c r="C10" t="str">
-        <v>"203.119.111.143"</v>
+        <v>"119.17.170.220"</v>
       </c>
       <c r="D10" t="str">
-        <v>"2022-10-22T02:00:40.908+07:00"</v>
+        <v>"2022-10-22T02:00:53.842+07:00"</v>
       </c>
       <c r="E10" t="str">
-        <v>"1970-01-20T13:53:00.534+07:00"</v>
+        <v>"1970-01-20T13:53:00.54+07:00"</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>"AARNet"</v>
+        <v>"Optus"</v>
       </c>
       <c r="B11" t="str">
         <v>true</v>
       </c>
       <c r="C11" t="str">
-        <v>"182.255.120.246"</v>
+        <v>"198.142.236.195"</v>
       </c>
       <c r="D11" t="str">
-        <v>"2022-10-22T01:59:29.006+07:00"</v>
+        <v>"2022-10-22T02:00:31.243+07:00"</v>
       </c>
       <c r="E11" t="str">
-        <v>"1970-01-20T13:53:00.457+07:00"</v>
+        <v>"1970-01-20T13:53:00.524+07:00"</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>"NuSkope"</v>
+      </c>
+      <c r="B12" t="str">
+        <v>true</v>
+      </c>
+      <c r="C12" t="str">
+        <v>"203.21.117.9"</v>
+      </c>
+      <c r="D12" t="str">
+        <v>"2022-10-22T01:59:06.835+07:00"</v>
+      </c>
+      <c r="E12" t="str">
+        <v>"1970-01-20T13:59:39.862+07:00"</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>"NODE1 Internet"</v>
+      </c>
+      <c r="B13" t="str">
+        <v>true</v>
+      </c>
+      <c r="C13" t="str">
+        <v>"202.40.3.147"</v>
+      </c>
+      <c r="D13" t="str">
+        <v>"2022-10-22T02:03:28.331+07:00"</v>
+      </c>
+      <c r="E13" t="str">
+        <v>"1970-01-20T13:59:39.956+07:00"</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>"Launtel"</v>
+      </c>
+      <c r="B14" t="str">
+        <v>true</v>
+      </c>
+      <c r="C14" t="str">
+        <v>"150.101.208.148"</v>
+      </c>
+      <c r="D14" t="str">
+        <v>"2022-10-22T02:04:15.33+07:00"</v>
+      </c>
+      <c r="E14" t="str">
+        <v>"1970-01-20T13:59:40+07:00"</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>"IX Australia"</v>
+      </c>
+      <c r="B15" t="str">
+        <v>true</v>
+      </c>
+      <c r="C15" t="str">
+        <v>"59.153.11.171"</v>
+      </c>
+      <c r="D15" t="str">
+        <v>"2022-10-22T02:13:53.323+07:00"</v>
+      </c>
+      <c r="E15" t="str">
+        <v>"1970-01-20T13:59:39.937+07:00"</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>"Internode"</v>
+      </c>
+      <c r="B16" t="str">
+        <v>true</v>
+      </c>
+      <c r="C16" t="str">
+        <v>"150.101.135.90"</v>
+      </c>
+      <c r="D16" t="str">
+        <v>"2022-10-22T01:59:50.828+07:00"</v>
+      </c>
+      <c r="E16" t="str">
+        <v>"1970-01-20T13:59:39.688+07:00"</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>"gtelecom pty ltd"</v>
+      </c>
+      <c r="B17" t="str">
+        <v>true</v>
+      </c>
+      <c r="C17" t="str">
+        <v>"211.26.25.5"</v>
+      </c>
+      <c r="D17" t="str">
+        <v>"2022-10-22T02:05:02.947+07:00"</v>
+      </c>
+      <c r="E17" t="str">
+        <v>"1970-01-20T13:53:00.629+07:00"</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>"GCOMM Pty. Ltd."</v>
+      </c>
+      <c r="B18" t="str">
+        <v>true</v>
+      </c>
+      <c r="C18" t="str">
+        <v>"182.255.123.245"</v>
+      </c>
+      <c r="D18" t="str">
+        <v>"2022-10-22T02:02:06.586+07:00"</v>
+      </c>
+      <c r="E18" t="str">
+        <v>"1970-01-20T13:53:00.591+07:00"</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>"GComm Pty Ltd"</v>
+      </c>
+      <c r="B19" t="str">
+        <v>true</v>
+      </c>
+      <c r="C19" t="str">
+        <v>"203.149.68.203"</v>
+      </c>
+      <c r="D19" t="str">
+        <v>"2022-10-22T02:00:34.46+07:00"</v>
+      </c>
+      <c r="E19" t="str">
+        <v>"1970-01-20T13:53:00.527+07:00"</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>"Frontier Networks"</v>
+      </c>
+      <c r="B20" t="str">
+        <v>true</v>
+      </c>
+      <c r="C20" t="str">
+        <v>"103.27.31.2"</v>
+      </c>
+      <c r="D20" t="str">
+        <v>"2022-10-22T02:00:50.636+07:00"</v>
+      </c>
+      <c r="E20" t="str">
+        <v>"1970-01-20T13:53:00.537+07:00"</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>"Foxtel Broadband"</v>
+      </c>
+      <c r="B21" t="str">
+        <v>true</v>
+      </c>
+      <c r="C21" t="str">
+        <v>"202.80.67.3"</v>
+      </c>
+      <c r="D21" t="str">
+        <v>"2022-10-22T01:58:47.822+07:00"</v>
+      </c>
+      <c r="E21" t="str">
+        <v>"1970-01-20T13:59:39.843+07:00"</v>
       </c>
     </row>
   </sheetData>
